--- a/files/SISE.xlsx
+++ b/files/SISE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Documents/9. Octubre_2023/9. Procesamiento cvs txt/9.2 Muestra Fuentes de Información Cierre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Todo\Documentos\Santiago\3_Trabajo Profesional\Full-Stack-Projects\Bodega\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F474D-7E22-4C42-8182-B89BADD41769}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A5DD1-B2B4-4279-A050-5D9C3FE9D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Verificada!$A$1:$GP$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="201">
   <si>
     <t>ID PRESTADOR</t>
   </si>
@@ -635,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -693,15 +704,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -709,7 +719,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1043,177 +1052,177 @@
   <dimension ref="A1:FI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="107.5" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="107.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
-    <col min="15" max="15" width="42.5" customWidth="1"/>
-    <col min="16" max="16" width="44.5" customWidth="1"/>
-    <col min="17" max="17" width="44.6640625" customWidth="1"/>
-    <col min="18" max="18" width="52.33203125" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" customWidth="1"/>
+    <col min="16" max="16" width="44.42578125" customWidth="1"/>
+    <col min="17" max="17" width="44.7109375" customWidth="1"/>
+    <col min="18" max="18" width="52.28515625" customWidth="1"/>
     <col min="19" max="19" width="53" customWidth="1"/>
-    <col min="20" max="20" width="48.5" customWidth="1"/>
-    <col min="21" max="21" width="56.1640625" customWidth="1"/>
+    <col min="20" max="20" width="48.42578125" customWidth="1"/>
+    <col min="21" max="21" width="56.140625" customWidth="1"/>
     <col min="22" max="22" width="56" customWidth="1"/>
     <col min="23" max="23" width="51" customWidth="1"/>
-    <col min="24" max="24" width="58.5" customWidth="1"/>
-    <col min="25" max="25" width="59.33203125" customWidth="1"/>
+    <col min="24" max="24" width="58.42578125" customWidth="1"/>
+    <col min="25" max="25" width="59.28515625" customWidth="1"/>
     <col min="26" max="26" width="34" customWidth="1"/>
-    <col min="27" max="27" width="37.33203125" customWidth="1"/>
-    <col min="28" max="28" width="36.5" customWidth="1"/>
+    <col min="27" max="27" width="37.28515625" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" customWidth="1"/>
     <col min="29" max="29" width="37" customWidth="1"/>
-    <col min="30" max="30" width="45.6640625" customWidth="1"/>
-    <col min="31" max="31" width="46.5" customWidth="1"/>
+    <col min="30" max="30" width="45.7109375" customWidth="1"/>
+    <col min="31" max="31" width="46.42578125" customWidth="1"/>
     <col min="32" max="32" width="32" customWidth="1"/>
-    <col min="33" max="33" width="40.6640625" customWidth="1"/>
-    <col min="34" max="34" width="41.5" customWidth="1"/>
-    <col min="35" max="35" width="43.33203125" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" customWidth="1"/>
+    <col min="34" max="34" width="41.42578125" customWidth="1"/>
+    <col min="35" max="35" width="43.28515625" customWidth="1"/>
     <col min="36" max="36" width="52" customWidth="1"/>
-    <col min="37" max="37" width="52.83203125" customWidth="1"/>
-    <col min="38" max="38" width="52.6640625" customWidth="1"/>
-    <col min="39" max="39" width="62.1640625" customWidth="1"/>
-    <col min="40" max="40" width="61.33203125" customWidth="1"/>
-    <col min="41" max="41" width="28.5" customWidth="1"/>
-    <col min="42" max="42" width="27.6640625" customWidth="1"/>
-    <col min="43" max="43" width="27.83203125" customWidth="1"/>
-    <col min="44" max="44" width="35.6640625" customWidth="1"/>
-    <col min="45" max="45" width="36.33203125" customWidth="1"/>
-    <col min="46" max="46" width="31.83203125" customWidth="1"/>
-    <col min="47" max="47" width="39.6640625" customWidth="1"/>
-    <col min="48" max="48" width="40.33203125" customWidth="1"/>
-    <col min="49" max="49" width="34.1640625" customWidth="1"/>
-    <col min="50" max="50" width="41.83203125" customWidth="1"/>
-    <col min="51" max="51" width="42.6640625" customWidth="1"/>
+    <col min="37" max="37" width="52.85546875" customWidth="1"/>
+    <col min="38" max="38" width="52.7109375" customWidth="1"/>
+    <col min="39" max="39" width="62.140625" customWidth="1"/>
+    <col min="40" max="40" width="61.28515625" customWidth="1"/>
+    <col min="41" max="41" width="28.42578125" customWidth="1"/>
+    <col min="42" max="42" width="27.7109375" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" customWidth="1"/>
+    <col min="44" max="44" width="35.7109375" customWidth="1"/>
+    <col min="45" max="45" width="36.28515625" customWidth="1"/>
+    <col min="46" max="46" width="31.85546875" customWidth="1"/>
+    <col min="47" max="47" width="39.7109375" customWidth="1"/>
+    <col min="48" max="48" width="40.28515625" customWidth="1"/>
+    <col min="49" max="49" width="34.140625" customWidth="1"/>
+    <col min="50" max="50" width="41.85546875" customWidth="1"/>
+    <col min="51" max="51" width="42.7109375" customWidth="1"/>
     <col min="52" max="52" width="41" customWidth="1"/>
-    <col min="53" max="53" width="49.5" customWidth="1"/>
-    <col min="54" max="54" width="48.6640625" customWidth="1"/>
+    <col min="53" max="53" width="49.42578125" customWidth="1"/>
+    <col min="54" max="54" width="48.7109375" customWidth="1"/>
     <col min="55" max="55" width="29" customWidth="1"/>
-    <col min="56" max="56" width="38.5" customWidth="1"/>
-    <col min="57" max="57" width="37.83203125" customWidth="1"/>
-    <col min="58" max="58" width="38.1640625" customWidth="1"/>
-    <col min="59" max="59" width="47.6640625" customWidth="1"/>
-    <col min="60" max="60" width="46.83203125" customWidth="1"/>
-    <col min="61" max="61" width="44.6640625" customWidth="1"/>
-    <col min="62" max="62" width="54.1640625" customWidth="1"/>
-    <col min="63" max="63" width="53.33203125" customWidth="1"/>
-    <col min="64" max="64" width="42.83203125" customWidth="1"/>
-    <col min="65" max="65" width="51.5" customWidth="1"/>
-    <col min="66" max="66" width="52.33203125" customWidth="1"/>
-    <col min="67" max="67" width="53.83203125" customWidth="1"/>
-    <col min="68" max="68" width="63.33203125" customWidth="1"/>
-    <col min="69" max="69" width="62.5" customWidth="1"/>
-    <col min="70" max="70" width="48.1640625" customWidth="1"/>
+    <col min="56" max="56" width="38.42578125" customWidth="1"/>
+    <col min="57" max="57" width="37.85546875" customWidth="1"/>
+    <col min="58" max="58" width="38.140625" customWidth="1"/>
+    <col min="59" max="59" width="47.7109375" customWidth="1"/>
+    <col min="60" max="60" width="46.85546875" customWidth="1"/>
+    <col min="61" max="61" width="44.7109375" customWidth="1"/>
+    <col min="62" max="62" width="54.140625" customWidth="1"/>
+    <col min="63" max="63" width="53.28515625" customWidth="1"/>
+    <col min="64" max="64" width="42.85546875" customWidth="1"/>
+    <col min="65" max="65" width="51.42578125" customWidth="1"/>
+    <col min="66" max="66" width="52.28515625" customWidth="1"/>
+    <col min="67" max="67" width="53.85546875" customWidth="1"/>
+    <col min="68" max="68" width="63.28515625" customWidth="1"/>
+    <col min="69" max="69" width="62.42578125" customWidth="1"/>
+    <col min="70" max="70" width="48.140625" customWidth="1"/>
     <col min="71" max="71" width="53" customWidth="1"/>
-    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="72" max="72" width="18.7109375" customWidth="1"/>
     <col min="73" max="73" width="22" customWidth="1"/>
-    <col min="74" max="74" width="23.33203125" customWidth="1"/>
-    <col min="75" max="75" width="21.6640625" customWidth="1"/>
-    <col min="76" max="76" width="23.6640625" customWidth="1"/>
+    <col min="74" max="74" width="23.28515625" customWidth="1"/>
+    <col min="75" max="75" width="21.7109375" customWidth="1"/>
+    <col min="76" max="76" width="23.7109375" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="21.1640625" customWidth="1"/>
-    <col min="79" max="79" width="33.33203125" customWidth="1"/>
-    <col min="80" max="80" width="34.5" customWidth="1"/>
-    <col min="81" max="81" width="32.33203125" customWidth="1"/>
-    <col min="82" max="82" width="20.5" customWidth="1"/>
-    <col min="83" max="83" width="16.33203125" customWidth="1"/>
-    <col min="84" max="84" width="29.6640625" customWidth="1"/>
-    <col min="85" max="85" width="20.83203125" customWidth="1"/>
-    <col min="86" max="86" width="33.5" customWidth="1"/>
-    <col min="87" max="87" width="32.5" customWidth="1"/>
+    <col min="78" max="78" width="21.140625" customWidth="1"/>
+    <col min="79" max="79" width="33.28515625" customWidth="1"/>
+    <col min="80" max="80" width="34.42578125" customWidth="1"/>
+    <col min="81" max="81" width="32.28515625" customWidth="1"/>
+    <col min="82" max="82" width="20.42578125" customWidth="1"/>
+    <col min="83" max="83" width="16.28515625" customWidth="1"/>
+    <col min="84" max="84" width="29.7109375" customWidth="1"/>
+    <col min="85" max="85" width="20.85546875" customWidth="1"/>
+    <col min="86" max="86" width="33.42578125" customWidth="1"/>
+    <col min="87" max="87" width="32.42578125" customWidth="1"/>
     <col min="88" max="88" width="33" customWidth="1"/>
-    <col min="89" max="89" width="32.33203125" customWidth="1"/>
-    <col min="90" max="90" width="31.5" customWidth="1"/>
-    <col min="91" max="91" width="30.83203125" customWidth="1"/>
+    <col min="89" max="89" width="32.28515625" customWidth="1"/>
+    <col min="90" max="90" width="31.42578125" customWidth="1"/>
+    <col min="91" max="91" width="30.85546875" customWidth="1"/>
     <col min="92" max="92" width="37" customWidth="1"/>
-    <col min="93" max="93" width="45.6640625" customWidth="1"/>
-    <col min="94" max="94" width="45.5" customWidth="1"/>
+    <col min="93" max="93" width="45.7109375" customWidth="1"/>
+    <col min="94" max="94" width="45.42578125" customWidth="1"/>
     <col min="95" max="95" width="32" customWidth="1"/>
-    <col min="96" max="96" width="40.6640625" customWidth="1"/>
-    <col min="97" max="97" width="40.5" customWidth="1"/>
-    <col min="98" max="98" width="43.33203125" customWidth="1"/>
+    <col min="96" max="96" width="40.7109375" customWidth="1"/>
+    <col min="97" max="97" width="40.42578125" customWidth="1"/>
+    <col min="98" max="98" width="43.28515625" customWidth="1"/>
     <col min="99" max="99" width="52" customWidth="1"/>
-    <col min="100" max="100" width="51.83203125" customWidth="1"/>
-    <col min="101" max="101" width="52.6640625" customWidth="1"/>
-    <col min="102" max="102" width="61.1640625" customWidth="1"/>
-    <col min="103" max="103" width="61.33203125" customWidth="1"/>
+    <col min="100" max="100" width="51.85546875" customWidth="1"/>
+    <col min="101" max="101" width="52.7109375" customWidth="1"/>
+    <col min="102" max="102" width="61.140625" customWidth="1"/>
+    <col min="103" max="103" width="61.28515625" customWidth="1"/>
     <col min="104" max="104" width="30" customWidth="1"/>
-    <col min="105" max="105" width="38.5" customWidth="1"/>
-    <col min="106" max="107" width="37.6640625" customWidth="1"/>
-    <col min="108" max="108" width="45.33203125" customWidth="1"/>
+    <col min="105" max="105" width="38.42578125" customWidth="1"/>
+    <col min="106" max="107" width="37.7109375" customWidth="1"/>
+    <col min="108" max="108" width="45.28515625" customWidth="1"/>
     <col min="109" max="109" width="46" customWidth="1"/>
-    <col min="110" max="110" width="33.83203125" customWidth="1"/>
-    <col min="111" max="111" width="41.5" customWidth="1"/>
-    <col min="112" max="112" width="42.1640625" customWidth="1"/>
-    <col min="113" max="113" width="44.1640625" customWidth="1"/>
-    <col min="114" max="114" width="44.5" customWidth="1"/>
-    <col min="115" max="115" width="45.1640625" customWidth="1"/>
+    <col min="110" max="110" width="33.85546875" customWidth="1"/>
+    <col min="111" max="111" width="41.42578125" customWidth="1"/>
+    <col min="112" max="112" width="42.140625" customWidth="1"/>
+    <col min="113" max="113" width="44.140625" customWidth="1"/>
+    <col min="114" max="114" width="44.42578125" customWidth="1"/>
+    <col min="115" max="115" width="45.140625" customWidth="1"/>
     <col min="116" max="116" width="51" customWidth="1"/>
-    <col min="117" max="117" width="58.83203125" customWidth="1"/>
-    <col min="118" max="118" width="59.5" customWidth="1"/>
-    <col min="119" max="119" width="38.6640625" customWidth="1"/>
-    <col min="120" max="120" width="47.1640625" customWidth="1"/>
-    <col min="121" max="121" width="46.5" customWidth="1"/>
-    <col min="122" max="122" width="47.83203125" customWidth="1"/>
-    <col min="123" max="123" width="55.5" customWidth="1"/>
-    <col min="124" max="124" width="56.33203125" customWidth="1"/>
-    <col min="125" max="125" width="51.83203125" customWidth="1"/>
-    <col min="126" max="126" width="59.6640625" customWidth="1"/>
-    <col min="127" max="127" width="60.33203125" customWidth="1"/>
-    <col min="128" max="128" width="51.33203125" customWidth="1"/>
-    <col min="129" max="129" width="59.1640625" customWidth="1"/>
-    <col min="130" max="130" width="59.83203125" customWidth="1"/>
-    <col min="131" max="131" width="28.1640625" customWidth="1"/>
-    <col min="132" max="132" width="36.6640625" customWidth="1"/>
+    <col min="117" max="117" width="58.85546875" customWidth="1"/>
+    <col min="118" max="118" width="59.42578125" customWidth="1"/>
+    <col min="119" max="119" width="38.7109375" customWidth="1"/>
+    <col min="120" max="120" width="47.140625" customWidth="1"/>
+    <col min="121" max="121" width="46.42578125" customWidth="1"/>
+    <col min="122" max="122" width="47.85546875" customWidth="1"/>
+    <col min="123" max="123" width="55.42578125" customWidth="1"/>
+    <col min="124" max="124" width="56.28515625" customWidth="1"/>
+    <col min="125" max="125" width="51.85546875" customWidth="1"/>
+    <col min="126" max="126" width="59.7109375" customWidth="1"/>
+    <col min="127" max="127" width="60.28515625" customWidth="1"/>
+    <col min="128" max="128" width="51.28515625" customWidth="1"/>
+    <col min="129" max="129" width="59.140625" customWidth="1"/>
+    <col min="130" max="130" width="59.85546875" customWidth="1"/>
+    <col min="131" max="131" width="28.140625" customWidth="1"/>
+    <col min="132" max="132" width="36.7109375" customWidth="1"/>
     <col min="133" max="133" width="36" customWidth="1"/>
-    <col min="134" max="134" width="49.33203125" customWidth="1"/>
+    <col min="134" max="134" width="49.28515625" customWidth="1"/>
     <col min="135" max="135" width="57" customWidth="1"/>
-    <col min="136" max="136" width="57.83203125" customWidth="1"/>
-    <col min="137" max="137" width="24.5" customWidth="1"/>
+    <col min="136" max="136" width="57.85546875" customWidth="1"/>
+    <col min="137" max="137" width="24.42578125" customWidth="1"/>
     <col min="138" max="138" width="33" customWidth="1"/>
-    <col min="139" max="139" width="57.83203125" customWidth="1"/>
-    <col min="140" max="140" width="64.1640625" customWidth="1"/>
-    <col min="141" max="141" width="58.6640625" customWidth="1"/>
-    <col min="142" max="142" width="47.1640625" customWidth="1"/>
-    <col min="143" max="143" width="37.1640625" customWidth="1"/>
-    <col min="144" max="144" width="32.1640625" customWidth="1"/>
-    <col min="145" max="145" width="57.1640625" customWidth="1"/>
-    <col min="146" max="146" width="63.33203125" customWidth="1"/>
-    <col min="147" max="147" width="57.83203125" customWidth="1"/>
-    <col min="148" max="148" width="46.33203125" customWidth="1"/>
-    <col min="149" max="149" width="36.5" customWidth="1"/>
-    <col min="150" max="150" width="23.83203125" customWidth="1"/>
-    <col min="151" max="151" width="32.33203125" customWidth="1"/>
-    <col min="152" max="152" width="57.33203125" customWidth="1"/>
-    <col min="153" max="153" width="63.5" customWidth="1"/>
+    <col min="139" max="139" width="57.85546875" customWidth="1"/>
+    <col min="140" max="140" width="64.140625" customWidth="1"/>
+    <col min="141" max="141" width="58.7109375" customWidth="1"/>
+    <col min="142" max="142" width="47.140625" customWidth="1"/>
+    <col min="143" max="143" width="37.140625" customWidth="1"/>
+    <col min="144" max="144" width="32.140625" customWidth="1"/>
+    <col min="145" max="145" width="57.140625" customWidth="1"/>
+    <col min="146" max="146" width="63.28515625" customWidth="1"/>
+    <col min="147" max="147" width="57.85546875" customWidth="1"/>
+    <col min="148" max="148" width="46.28515625" customWidth="1"/>
+    <col min="149" max="149" width="36.42578125" customWidth="1"/>
+    <col min="150" max="150" width="23.85546875" customWidth="1"/>
+    <col min="151" max="151" width="32.28515625" customWidth="1"/>
+    <col min="152" max="152" width="57.28515625" customWidth="1"/>
+    <col min="153" max="153" width="63.42578125" customWidth="1"/>
     <col min="154" max="154" width="58" customWidth="1"/>
-    <col min="155" max="155" width="46.5" customWidth="1"/>
-    <col min="156" max="156" width="36.6640625" customWidth="1"/>
-    <col min="157" max="157" width="31.6640625" customWidth="1"/>
-    <col min="158" max="158" width="56.5" customWidth="1"/>
-    <col min="159" max="159" width="62.83203125" customWidth="1"/>
-    <col min="160" max="160" width="57.1640625" customWidth="1"/>
-    <col min="161" max="161" width="45.83203125" customWidth="1"/>
-    <col min="162" max="162" width="35.83203125" customWidth="1"/>
+    <col min="155" max="155" width="46.42578125" customWidth="1"/>
+    <col min="156" max="156" width="36.7109375" customWidth="1"/>
+    <col min="157" max="157" width="31.7109375" customWidth="1"/>
+    <col min="158" max="158" width="56.42578125" customWidth="1"/>
+    <col min="159" max="159" width="62.85546875" customWidth="1"/>
+    <col min="160" max="160" width="57.140625" customWidth="1"/>
+    <col min="161" max="161" width="45.85546875" customWidth="1"/>
+    <col min="162" max="162" width="35.85546875" customWidth="1"/>
     <col min="163" max="163" width="28" customWidth="1"/>
-    <col min="164" max="164" width="57.33203125" customWidth="1"/>
-    <col min="165" max="165" width="56.6640625" customWidth="1"/>
+    <col min="164" max="164" width="57.28515625" customWidth="1"/>
+    <col min="165" max="165" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:165">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1256,37 +1265,37 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
@@ -1710,8 +1719,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:165">
+      <c r="A2" t="s">
         <v>165</v>
       </c>
       <c r="B2" t="s">
@@ -1720,8 +1729,8 @@
       <c r="C2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>168</v>
+      <c r="D2">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
@@ -2207,8 +2216,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:165">
+      <c r="A3" t="s">
         <v>165</v>
       </c>
       <c r="B3" t="s">
@@ -2704,8 +2713,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:165">
+      <c r="A4" t="s">
         <v>165</v>
       </c>
       <c r="B4" t="s">
@@ -3201,8 +3210,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:165">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
       <c r="B5" t="s">
@@ -3698,8 +3707,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:165">
+      <c r="A6" t="s">
         <v>181</v>
       </c>
       <c r="B6" t="s">
@@ -4195,8 +4204,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:165">
+      <c r="A7" t="s">
         <v>181</v>
       </c>
       <c r="B7" t="s">
@@ -4692,8 +4701,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:165">
+      <c r="A8" t="s">
         <v>181</v>
       </c>
       <c r="B8" t="s">
@@ -5189,8 +5198,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:165">
+      <c r="A9" t="s">
         <v>181</v>
       </c>
       <c r="B9" t="s">
@@ -5686,8 +5695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:165">
+      <c r="A10" t="s">
         <v>181</v>
       </c>
       <c r="B10" t="s">
@@ -6183,8 +6192,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:165">
+      <c r="A11" t="s">
         <v>181</v>
       </c>
       <c r="B11" t="s">
@@ -6693,212 +6702,212 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="107.5" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" customWidth="1"/>
-    <col min="12" max="12" width="28.5" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" customWidth="1"/>
-    <col min="16" max="16" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="107.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
-    <col min="18" max="18" width="35.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="35.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
     <col min="20" max="20" width="34" customWidth="1"/>
-    <col min="21" max="21" width="37.33203125" customWidth="1"/>
-    <col min="22" max="22" width="36.5" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" customWidth="1"/>
+    <col min="21" max="21" width="37.28515625" customWidth="1"/>
+    <col min="22" max="22" width="36.42578125" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" customWidth="1"/>
     <col min="24" max="24" width="37" customWidth="1"/>
-    <col min="25" max="25" width="45.6640625" customWidth="1"/>
-    <col min="26" max="26" width="46.5" customWidth="1"/>
-    <col min="27" max="27" width="6.6640625" customWidth="1"/>
+    <col min="25" max="25" width="45.7109375" customWidth="1"/>
+    <col min="26" max="26" width="46.42578125" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" customWidth="1"/>
     <col min="28" max="28" width="32" customWidth="1"/>
-    <col min="29" max="29" width="40.6640625" customWidth="1"/>
-    <col min="30" max="30" width="41.5" customWidth="1"/>
-    <col min="31" max="31" width="6.6640625" customWidth="1"/>
-    <col min="32" max="32" width="43.33203125" customWidth="1"/>
+    <col min="29" max="29" width="40.7109375" customWidth="1"/>
+    <col min="30" max="30" width="41.42578125" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" customWidth="1"/>
+    <col min="32" max="32" width="43.28515625" customWidth="1"/>
     <col min="33" max="33" width="52" customWidth="1"/>
-    <col min="34" max="34" width="52.83203125" customWidth="1"/>
-    <col min="35" max="35" width="6.6640625" customWidth="1"/>
-    <col min="36" max="36" width="52.6640625" customWidth="1"/>
-    <col min="37" max="37" width="61.33203125" customWidth="1"/>
-    <col min="38" max="38" width="62.1640625" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" customWidth="1"/>
-    <col min="40" max="40" width="27.83203125" customWidth="1"/>
-    <col min="41" max="41" width="35.6640625" customWidth="1"/>
-    <col min="42" max="42" width="36.33203125" customWidth="1"/>
-    <col min="43" max="43" width="6.6640625" customWidth="1"/>
-    <col min="44" max="44" width="31.83203125" customWidth="1"/>
-    <col min="45" max="45" width="39.6640625" customWidth="1"/>
-    <col min="46" max="46" width="40.33203125" customWidth="1"/>
-    <col min="47" max="47" width="6.6640625" customWidth="1"/>
-    <col min="48" max="48" width="34.1640625" customWidth="1"/>
-    <col min="49" max="49" width="41.83203125" customWidth="1"/>
-    <col min="50" max="50" width="42.6640625" customWidth="1"/>
-    <col min="51" max="51" width="6.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.85546875" customWidth="1"/>
+    <col min="35" max="35" width="6.7109375" customWidth="1"/>
+    <col min="36" max="36" width="52.7109375" customWidth="1"/>
+    <col min="37" max="37" width="61.28515625" customWidth="1"/>
+    <col min="38" max="38" width="62.140625" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" customWidth="1"/>
+    <col min="41" max="41" width="35.7109375" customWidth="1"/>
+    <col min="42" max="42" width="36.28515625" customWidth="1"/>
+    <col min="43" max="43" width="6.7109375" customWidth="1"/>
+    <col min="44" max="44" width="31.85546875" customWidth="1"/>
+    <col min="45" max="45" width="39.7109375" customWidth="1"/>
+    <col min="46" max="46" width="40.28515625" customWidth="1"/>
+    <col min="47" max="47" width="6.7109375" customWidth="1"/>
+    <col min="48" max="48" width="34.140625" customWidth="1"/>
+    <col min="49" max="49" width="41.85546875" customWidth="1"/>
+    <col min="50" max="50" width="42.7109375" customWidth="1"/>
+    <col min="51" max="51" width="6.7109375" customWidth="1"/>
     <col min="52" max="52" width="41" customWidth="1"/>
-    <col min="53" max="53" width="48.6640625" customWidth="1"/>
-    <col min="54" max="54" width="49.5" customWidth="1"/>
-    <col min="55" max="55" width="6.6640625" customWidth="1"/>
+    <col min="53" max="53" width="48.7109375" customWidth="1"/>
+    <col min="54" max="54" width="49.42578125" customWidth="1"/>
+    <col min="55" max="55" width="6.7109375" customWidth="1"/>
     <col min="56" max="56" width="29" customWidth="1"/>
-    <col min="57" max="57" width="38.5" customWidth="1"/>
-    <col min="58" max="58" width="37.83203125" customWidth="1"/>
-    <col min="59" max="59" width="6.6640625" customWidth="1"/>
-    <col min="60" max="60" width="38.1640625" customWidth="1"/>
-    <col min="61" max="61" width="46.83203125" customWidth="1"/>
-    <col min="62" max="62" width="47.6640625" customWidth="1"/>
-    <col min="63" max="63" width="6.6640625" customWidth="1"/>
-    <col min="64" max="64" width="44.6640625" customWidth="1"/>
-    <col min="65" max="65" width="53.33203125" customWidth="1"/>
-    <col min="66" max="66" width="54.1640625" customWidth="1"/>
-    <col min="67" max="67" width="6.6640625" customWidth="1"/>
-    <col min="68" max="68" width="42.83203125" customWidth="1"/>
-    <col min="69" max="69" width="51.5" customWidth="1"/>
-    <col min="70" max="70" width="52.33203125" customWidth="1"/>
-    <col min="71" max="71" width="6.6640625" customWidth="1"/>
-    <col min="72" max="72" width="47.83203125" customWidth="1"/>
-    <col min="73" max="73" width="55.33203125" customWidth="1"/>
-    <col min="74" max="74" width="56.1640625" customWidth="1"/>
-    <col min="75" max="75" width="48.1640625" customWidth="1"/>
+    <col min="57" max="57" width="38.42578125" customWidth="1"/>
+    <col min="58" max="58" width="37.85546875" customWidth="1"/>
+    <col min="59" max="59" width="6.7109375" customWidth="1"/>
+    <col min="60" max="60" width="38.140625" customWidth="1"/>
+    <col min="61" max="61" width="46.85546875" customWidth="1"/>
+    <col min="62" max="62" width="47.7109375" customWidth="1"/>
+    <col min="63" max="63" width="6.7109375" customWidth="1"/>
+    <col min="64" max="64" width="44.7109375" customWidth="1"/>
+    <col min="65" max="65" width="53.28515625" customWidth="1"/>
+    <col min="66" max="66" width="54.140625" customWidth="1"/>
+    <col min="67" max="67" width="6.7109375" customWidth="1"/>
+    <col min="68" max="68" width="42.85546875" customWidth="1"/>
+    <col min="69" max="69" width="51.42578125" customWidth="1"/>
+    <col min="70" max="70" width="52.28515625" customWidth="1"/>
+    <col min="71" max="71" width="6.7109375" customWidth="1"/>
+    <col min="72" max="72" width="47.85546875" customWidth="1"/>
+    <col min="73" max="73" width="55.28515625" customWidth="1"/>
+    <col min="74" max="74" width="56.140625" customWidth="1"/>
+    <col min="75" max="75" width="48.140625" customWidth="1"/>
     <col min="76" max="76" width="53" customWidth="1"/>
-    <col min="77" max="77" width="6.6640625" customWidth="1"/>
-    <col min="78" max="78" width="18.6640625" customWidth="1"/>
+    <col min="77" max="77" width="6.7109375" customWidth="1"/>
+    <col min="78" max="78" width="18.7109375" customWidth="1"/>
     <col min="79" max="79" width="22" customWidth="1"/>
-    <col min="80" max="80" width="23.33203125" customWidth="1"/>
+    <col min="80" max="80" width="23.28515625" customWidth="1"/>
     <col min="81" max="81" width="22" customWidth="1"/>
-    <col min="82" max="82" width="21.1640625" customWidth="1"/>
-    <col min="83" max="83" width="7.83203125" customWidth="1"/>
-    <col min="84" max="84" width="21.6640625" customWidth="1"/>
-    <col min="85" max="85" width="31.5" customWidth="1"/>
-    <col min="86" max="86" width="30.83203125" customWidth="1"/>
-    <col min="87" max="87" width="7.83203125" customWidth="1"/>
-    <col min="88" max="88" width="23.6640625" customWidth="1"/>
+    <col min="82" max="82" width="21.140625" customWidth="1"/>
+    <col min="83" max="83" width="7.85546875" customWidth="1"/>
+    <col min="84" max="84" width="21.7109375" customWidth="1"/>
+    <col min="85" max="85" width="31.42578125" customWidth="1"/>
+    <col min="86" max="86" width="30.85546875" customWidth="1"/>
+    <col min="87" max="87" width="7.85546875" customWidth="1"/>
+    <col min="88" max="88" width="23.7109375" customWidth="1"/>
     <col min="89" max="89" width="33" customWidth="1"/>
-    <col min="90" max="90" width="32.33203125" customWidth="1"/>
-    <col min="91" max="91" width="33.33203125" customWidth="1"/>
-    <col min="92" max="92" width="34.5" customWidth="1"/>
-    <col min="93" max="93" width="32.33203125" customWidth="1"/>
-    <col min="94" max="94" width="20.5" customWidth="1"/>
-    <col min="95" max="95" width="16.33203125" customWidth="1"/>
-    <col min="96" max="96" width="29.6640625" customWidth="1"/>
-    <col min="97" max="97" width="7.83203125" customWidth="1"/>
-    <col min="98" max="98" width="20.83203125" customWidth="1"/>
-    <col min="99" max="99" width="33.5" customWidth="1"/>
-    <col min="100" max="100" width="32.5" customWidth="1"/>
-    <col min="101" max="101" width="7.83203125" customWidth="1"/>
+    <col min="90" max="90" width="32.28515625" customWidth="1"/>
+    <col min="91" max="91" width="33.28515625" customWidth="1"/>
+    <col min="92" max="92" width="34.42578125" customWidth="1"/>
+    <col min="93" max="93" width="32.28515625" customWidth="1"/>
+    <col min="94" max="94" width="20.42578125" customWidth="1"/>
+    <col min="95" max="95" width="16.28515625" customWidth="1"/>
+    <col min="96" max="96" width="29.7109375" customWidth="1"/>
+    <col min="97" max="97" width="7.85546875" customWidth="1"/>
+    <col min="98" max="98" width="20.85546875" customWidth="1"/>
+    <col min="99" max="99" width="33.42578125" customWidth="1"/>
+    <col min="100" max="100" width="32.42578125" customWidth="1"/>
+    <col min="101" max="101" width="7.85546875" customWidth="1"/>
     <col min="102" max="102" width="37" customWidth="1"/>
-    <col min="103" max="103" width="45.6640625" customWidth="1"/>
-    <col min="104" max="104" width="45.5" customWidth="1"/>
-    <col min="105" max="105" width="7.83203125" customWidth="1"/>
+    <col min="103" max="103" width="45.7109375" customWidth="1"/>
+    <col min="104" max="104" width="45.42578125" customWidth="1"/>
+    <col min="105" max="105" width="7.85546875" customWidth="1"/>
     <col min="106" max="106" width="32" customWidth="1"/>
-    <col min="107" max="107" width="40.6640625" customWidth="1"/>
-    <col min="108" max="108" width="40.5" customWidth="1"/>
-    <col min="109" max="109" width="7.83203125" customWidth="1"/>
-    <col min="110" max="110" width="43.33203125" customWidth="1"/>
+    <col min="107" max="107" width="40.7109375" customWidth="1"/>
+    <col min="108" max="108" width="40.42578125" customWidth="1"/>
+    <col min="109" max="109" width="7.85546875" customWidth="1"/>
+    <col min="110" max="110" width="43.28515625" customWidth="1"/>
     <col min="111" max="111" width="52" customWidth="1"/>
-    <col min="112" max="112" width="51.83203125" customWidth="1"/>
-    <col min="113" max="113" width="7.83203125" customWidth="1"/>
-    <col min="114" max="114" width="52.6640625" customWidth="1"/>
-    <col min="115" max="115" width="61.33203125" customWidth="1"/>
-    <col min="116" max="116" width="61.1640625" customWidth="1"/>
-    <col min="117" max="117" width="7.83203125" customWidth="1"/>
+    <col min="112" max="112" width="51.85546875" customWidth="1"/>
+    <col min="113" max="113" width="7.85546875" customWidth="1"/>
+    <col min="114" max="114" width="52.7109375" customWidth="1"/>
+    <col min="115" max="115" width="61.28515625" customWidth="1"/>
+    <col min="116" max="116" width="61.140625" customWidth="1"/>
+    <col min="117" max="117" width="7.85546875" customWidth="1"/>
     <col min="118" max="118" width="30" customWidth="1"/>
-    <col min="119" max="119" width="38.5" customWidth="1"/>
-    <col min="120" max="120" width="37.6640625" customWidth="1"/>
-    <col min="121" max="121" width="7.83203125" customWidth="1"/>
-    <col min="122" max="122" width="37.6640625" customWidth="1"/>
-    <col min="123" max="123" width="45.33203125" customWidth="1"/>
+    <col min="119" max="119" width="38.42578125" customWidth="1"/>
+    <col min="120" max="120" width="37.7109375" customWidth="1"/>
+    <col min="121" max="121" width="7.85546875" customWidth="1"/>
+    <col min="122" max="122" width="37.7109375" customWidth="1"/>
+    <col min="123" max="123" width="45.28515625" customWidth="1"/>
     <col min="124" max="124" width="46" customWidth="1"/>
-    <col min="125" max="125" width="7.83203125" customWidth="1"/>
-    <col min="126" max="126" width="33.83203125" customWidth="1"/>
-    <col min="127" max="127" width="41.5" customWidth="1"/>
-    <col min="128" max="128" width="42.1640625" customWidth="1"/>
-    <col min="129" max="129" width="7.83203125" customWidth="1"/>
-    <col min="130" max="130" width="44.1640625" customWidth="1"/>
-    <col min="131" max="131" width="44.5" customWidth="1"/>
-    <col min="132" max="132" width="45.1640625" customWidth="1"/>
-    <col min="133" max="133" width="7.83203125" customWidth="1"/>
+    <col min="125" max="125" width="7.85546875" customWidth="1"/>
+    <col min="126" max="126" width="33.85546875" customWidth="1"/>
+    <col min="127" max="127" width="41.42578125" customWidth="1"/>
+    <col min="128" max="128" width="42.140625" customWidth="1"/>
+    <col min="129" max="129" width="7.85546875" customWidth="1"/>
+    <col min="130" max="130" width="44.140625" customWidth="1"/>
+    <col min="131" max="131" width="44.42578125" customWidth="1"/>
+    <col min="132" max="132" width="45.140625" customWidth="1"/>
+    <col min="133" max="133" width="7.85546875" customWidth="1"/>
     <col min="134" max="134" width="51" customWidth="1"/>
-    <col min="135" max="135" width="58.83203125" customWidth="1"/>
-    <col min="136" max="136" width="59.5" customWidth="1"/>
-    <col min="137" max="137" width="7.83203125" customWidth="1"/>
-    <col min="138" max="138" width="38.6640625" customWidth="1"/>
-    <col min="139" max="139" width="47.1640625" customWidth="1"/>
-    <col min="140" max="140" width="46.5" customWidth="1"/>
-    <col min="141" max="141" width="7.83203125" customWidth="1"/>
-    <col min="142" max="142" width="47.83203125" customWidth="1"/>
-    <col min="143" max="143" width="55.5" customWidth="1"/>
-    <col min="144" max="144" width="56.33203125" customWidth="1"/>
-    <col min="145" max="145" width="7.83203125" customWidth="1"/>
-    <col min="146" max="146" width="51.83203125" customWidth="1"/>
-    <col min="147" max="147" width="59.6640625" customWidth="1"/>
-    <col min="148" max="148" width="60.33203125" customWidth="1"/>
-    <col min="149" max="149" width="7.83203125" customWidth="1"/>
-    <col min="150" max="150" width="51.33203125" customWidth="1"/>
-    <col min="151" max="151" width="59.1640625" customWidth="1"/>
-    <col min="152" max="152" width="59.83203125" customWidth="1"/>
-    <col min="153" max="153" width="7.83203125" customWidth="1"/>
-    <col min="154" max="154" width="28.1640625" customWidth="1"/>
-    <col min="155" max="155" width="36.6640625" customWidth="1"/>
+    <col min="135" max="135" width="58.85546875" customWidth="1"/>
+    <col min="136" max="136" width="59.42578125" customWidth="1"/>
+    <col min="137" max="137" width="7.85546875" customWidth="1"/>
+    <col min="138" max="138" width="38.7109375" customWidth="1"/>
+    <col min="139" max="139" width="47.140625" customWidth="1"/>
+    <col min="140" max="140" width="46.42578125" customWidth="1"/>
+    <col min="141" max="141" width="7.85546875" customWidth="1"/>
+    <col min="142" max="142" width="47.85546875" customWidth="1"/>
+    <col min="143" max="143" width="55.42578125" customWidth="1"/>
+    <col min="144" max="144" width="56.28515625" customWidth="1"/>
+    <col min="145" max="145" width="7.85546875" customWidth="1"/>
+    <col min="146" max="146" width="51.85546875" customWidth="1"/>
+    <col min="147" max="147" width="59.7109375" customWidth="1"/>
+    <col min="148" max="148" width="60.28515625" customWidth="1"/>
+    <col min="149" max="149" width="7.85546875" customWidth="1"/>
+    <col min="150" max="150" width="51.28515625" customWidth="1"/>
+    <col min="151" max="151" width="59.140625" customWidth="1"/>
+    <col min="152" max="152" width="59.85546875" customWidth="1"/>
+    <col min="153" max="153" width="7.85546875" customWidth="1"/>
+    <col min="154" max="154" width="28.140625" customWidth="1"/>
+    <col min="155" max="155" width="36.7109375" customWidth="1"/>
     <col min="156" max="156" width="36" customWidth="1"/>
-    <col min="157" max="157" width="7.83203125" customWidth="1"/>
-    <col min="158" max="158" width="49.33203125" customWidth="1"/>
+    <col min="157" max="157" width="7.85546875" customWidth="1"/>
+    <col min="158" max="158" width="49.28515625" customWidth="1"/>
     <col min="159" max="159" width="57" customWidth="1"/>
-    <col min="160" max="160" width="57.83203125" customWidth="1"/>
-    <col min="161" max="161" width="7.83203125" customWidth="1"/>
-    <col min="162" max="162" width="24.5" customWidth="1"/>
-    <col min="163" max="163" width="6.1640625" customWidth="1"/>
+    <col min="160" max="160" width="57.85546875" customWidth="1"/>
+    <col min="161" max="161" width="7.85546875" customWidth="1"/>
+    <col min="162" max="162" width="24.42578125" customWidth="1"/>
+    <col min="163" max="163" width="6.140625" customWidth="1"/>
     <col min="164" max="164" width="33" customWidth="1"/>
-    <col min="165" max="165" width="57.83203125" customWidth="1"/>
-    <col min="166" max="166" width="64.1640625" customWidth="1"/>
-    <col min="167" max="167" width="58.6640625" customWidth="1"/>
-    <col min="168" max="168" width="47.1640625" customWidth="1"/>
-    <col min="169" max="169" width="37.1640625" customWidth="1"/>
-    <col min="170" max="170" width="9.1640625" customWidth="1"/>
-    <col min="171" max="171" width="32.1640625" customWidth="1"/>
-    <col min="172" max="172" width="57.1640625" customWidth="1"/>
-    <col min="173" max="173" width="63.33203125" customWidth="1"/>
-    <col min="174" max="174" width="57.83203125" customWidth="1"/>
-    <col min="175" max="175" width="46.33203125" customWidth="1"/>
-    <col min="176" max="176" width="36.5" customWidth="1"/>
-    <col min="177" max="177" width="5.6640625" customWidth="1"/>
-    <col min="178" max="178" width="23.83203125" customWidth="1"/>
+    <col min="165" max="165" width="57.85546875" customWidth="1"/>
+    <col min="166" max="166" width="64.140625" customWidth="1"/>
+    <col min="167" max="167" width="58.7109375" customWidth="1"/>
+    <col min="168" max="168" width="47.140625" customWidth="1"/>
+    <col min="169" max="169" width="37.140625" customWidth="1"/>
+    <col min="170" max="170" width="9.140625" customWidth="1"/>
+    <col min="171" max="171" width="32.140625" customWidth="1"/>
+    <col min="172" max="172" width="57.140625" customWidth="1"/>
+    <col min="173" max="173" width="63.28515625" customWidth="1"/>
+    <col min="174" max="174" width="57.85546875" customWidth="1"/>
+    <col min="175" max="175" width="46.28515625" customWidth="1"/>
+    <col min="176" max="176" width="36.42578125" customWidth="1"/>
+    <col min="177" max="177" width="5.7109375" customWidth="1"/>
+    <col min="178" max="178" width="23.85546875" customWidth="1"/>
     <col min="179" max="179" width="8" customWidth="1"/>
-    <col min="180" max="180" width="32.33203125" customWidth="1"/>
-    <col min="181" max="181" width="57.33203125" customWidth="1"/>
-    <col min="182" max="182" width="63.5" customWidth="1"/>
+    <col min="180" max="180" width="32.28515625" customWidth="1"/>
+    <col min="181" max="181" width="57.28515625" customWidth="1"/>
+    <col min="182" max="182" width="63.42578125" customWidth="1"/>
     <col min="183" max="183" width="58" customWidth="1"/>
-    <col min="184" max="184" width="46.5" customWidth="1"/>
-    <col min="185" max="185" width="36.6640625" customWidth="1"/>
-    <col min="186" max="186" width="9.1640625" customWidth="1"/>
-    <col min="187" max="187" width="31.6640625" customWidth="1"/>
-    <col min="188" max="188" width="56.5" customWidth="1"/>
-    <col min="189" max="189" width="62.83203125" customWidth="1"/>
-    <col min="190" max="190" width="57.1640625" customWidth="1"/>
-    <col min="191" max="191" width="45.83203125" customWidth="1"/>
-    <col min="192" max="192" width="35.83203125" customWidth="1"/>
-    <col min="193" max="193" width="7.1640625" customWidth="1"/>
+    <col min="184" max="184" width="46.42578125" customWidth="1"/>
+    <col min="185" max="185" width="36.7109375" customWidth="1"/>
+    <col min="186" max="186" width="9.140625" customWidth="1"/>
+    <col min="187" max="187" width="31.7109375" customWidth="1"/>
+    <col min="188" max="188" width="56.42578125" customWidth="1"/>
+    <col min="189" max="189" width="62.85546875" customWidth="1"/>
+    <col min="190" max="190" width="57.140625" customWidth="1"/>
+    <col min="191" max="191" width="45.85546875" customWidth="1"/>
+    <col min="192" max="192" width="35.85546875" customWidth="1"/>
+    <col min="193" max="193" width="7.140625" customWidth="1"/>
     <col min="194" max="194" width="28" customWidth="1"/>
-    <col min="195" max="195" width="57.33203125" customWidth="1"/>
-    <col min="196" max="196" width="56.6640625" customWidth="1"/>
-    <col min="197" max="197" width="9.6640625" customWidth="1"/>
-    <col min="198" max="198" width="10.1640625" customWidth="1"/>
+    <col min="195" max="195" width="57.28515625" customWidth="1"/>
+    <col min="196" max="196" width="56.7109375" customWidth="1"/>
+    <col min="197" max="197" width="9.7109375" customWidth="1"/>
+    <col min="198" max="198" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:196">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -6922,436 +6931,436 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="CQ1" t="s">
         <v>82</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CX1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DG1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DH1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DK1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DL1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DM1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DN1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DO1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DP1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DR1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DS1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DT1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DV1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DW1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DX1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="DZ1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EA1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EB1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="ED1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EE1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EF1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EG1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EH1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EI1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EK1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EL1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EM1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EN1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EO1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EP1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="ER1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ES1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="ET1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EU1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EV1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EW1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="EX1" t="s">
@@ -7363,132 +7372,132 @@
       <c r="EZ1" t="s">
         <v>132</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="FB1" s="7" t="s">
+      <c r="FB1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="FC1" s="4" t="s">
+      <c r="FC1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="FD1" s="4" t="s">
+      <c r="FD1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FE1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="FF1" s="4" t="s">
+      <c r="FF1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FG1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FH1" s="8" t="s">
+      <c r="FH1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="FI1" s="4" t="s">
+      <c r="FI1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="FJ1" s="4" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="FK1" s="4" t="s">
+      <c r="FK1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="FL1" s="4" t="s">
+      <c r="FL1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="FM1" s="4" t="s">
+      <c r="FM1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FN1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FO1" s="8" t="s">
+      <c r="FO1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="FP1" s="4" t="s">
+      <c r="FP1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="FQ1" s="4" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="FR1" s="4" t="s">
+      <c r="FR1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="FS1" s="4" t="s">
+      <c r="FS1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="FT1" s="4" t="s">
+      <c r="FT1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FU1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FV1" s="4" t="s">
+      <c r="FV1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FW1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="FX1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="FY1" s="4" t="s">
+      <c r="FY1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="FZ1" s="4" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="GA1" s="4" t="s">
+      <c r="GA1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="GB1" s="4" t="s">
+      <c r="GB1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="GC1" s="4" t="s">
+      <c r="GC1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GD1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GE1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="GF1" s="4" t="s">
+      <c r="GF1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="GG1" s="4" t="s">
+      <c r="GG1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="GH1" s="4" t="s">
+      <c r="GH1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="GI1" s="4" t="s">
+      <c r="GI1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="GJ1" s="4" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GK1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GL1" s="4" t="s">
+      <c r="GL1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="GM1" s="4" t="s">
+      <c r="GM1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="GN1" s="4" t="s">
+      <c r="GN1" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:196">
       <c r="A2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>12018001</v>
       </c>
       <c r="C2" t="s">
@@ -8116,11 +8125,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:196">
       <c r="A3" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>12018002</v>
       </c>
       <c r="C3" t="s">
@@ -8748,11 +8757,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:196">
       <c r="A4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>12018003</v>
       </c>
       <c r="C4" t="s">
@@ -9380,11 +9389,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:196">
       <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>12018004</v>
       </c>
       <c r="C5" t="s">
@@ -10012,11 +10021,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:196">
       <c r="A6" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>12019039</v>
       </c>
       <c r="C6" t="s">
@@ -10644,11 +10653,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:196">
       <c r="A7" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>12019034</v>
       </c>
       <c r="C7" t="s">
@@ -11276,11 +11285,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:196">
       <c r="A8" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>12019002</v>
       </c>
       <c r="C8" t="s">
@@ -11908,11 +11917,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:196">
       <c r="A9" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>12019004</v>
       </c>
       <c r="C9" t="s">
@@ -12540,11 +12549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:196">
       <c r="A10" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>12019010</v>
       </c>
       <c r="C10" t="s">
@@ -13172,11 +13181,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:196" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:196">
       <c r="A11" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>12019006</v>
       </c>
       <c r="C11" t="s">
@@ -13804,203 +13813,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:196" x14ac:dyDescent="0.2">
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-      <c r="BX12" s="3"/>
-      <c r="BY12" s="3"/>
-      <c r="BZ12" s="3"/>
-      <c r="CA12" s="3"/>
-      <c r="CB12" s="3"/>
-      <c r="CC12" s="3"/>
-      <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
-      <c r="CI12" s="3"/>
-      <c r="CJ12" s="3"/>
-      <c r="CK12" s="3"/>
-      <c r="CL12" s="3"/>
-      <c r="CM12" s="3"/>
-      <c r="CN12" s="3"/>
-      <c r="CO12" s="3"/>
-      <c r="CP12" s="3"/>
-      <c r="CQ12" s="3"/>
-      <c r="CR12" s="3"/>
-      <c r="CS12" s="3"/>
-      <c r="CT12" s="3"/>
-      <c r="CU12" s="3"/>
-      <c r="CV12" s="3"/>
-      <c r="CW12" s="3"/>
-      <c r="CX12" s="3"/>
-      <c r="CY12" s="3"/>
-      <c r="CZ12" s="3"/>
-      <c r="DA12" s="3"/>
-      <c r="DB12" s="3"/>
-      <c r="DC12" s="3"/>
-      <c r="DD12" s="3"/>
-      <c r="DE12" s="3"/>
-      <c r="DF12" s="3"/>
-      <c r="DG12" s="3"/>
-      <c r="DH12" s="3"/>
-      <c r="DI12" s="3"/>
-      <c r="DJ12" s="3"/>
-      <c r="DK12" s="3"/>
-      <c r="DL12" s="3"/>
-      <c r="DM12" s="3"/>
-      <c r="DN12" s="3"/>
-      <c r="DO12" s="3"/>
-      <c r="DP12" s="3"/>
-      <c r="DQ12" s="3"/>
-      <c r="DR12" s="3"/>
-      <c r="DS12" s="3"/>
-      <c r="DT12" s="3"/>
-      <c r="DU12" s="3"/>
-      <c r="DV12" s="3"/>
-      <c r="DW12" s="3"/>
-      <c r="DX12" s="3"/>
-      <c r="DY12" s="3"/>
-      <c r="DZ12" s="3"/>
-      <c r="EA12" s="3"/>
-      <c r="EB12" s="3"/>
-      <c r="EC12" s="3"/>
-      <c r="ED12" s="3"/>
-      <c r="EE12" s="3"/>
-      <c r="EF12" s="3"/>
-      <c r="EG12" s="3"/>
-      <c r="EH12" s="3"/>
-      <c r="EI12" s="3"/>
-      <c r="EJ12" s="3"/>
-      <c r="EK12" s="3"/>
-      <c r="EL12" s="3"/>
-      <c r="EM12" s="3"/>
-      <c r="EN12" s="3"/>
-      <c r="EO12" s="3"/>
-      <c r="EP12" s="3"/>
-      <c r="EQ12" s="3"/>
-      <c r="ER12" s="3"/>
-      <c r="ES12" s="3"/>
-      <c r="ET12" s="3"/>
-      <c r="EU12" s="3"/>
-      <c r="EV12" s="3"/>
-      <c r="EW12" s="3"/>
-      <c r="EX12" s="3"/>
-      <c r="EY12" s="3"/>
-      <c r="EZ12" s="3"/>
-      <c r="FA12" s="3"/>
-      <c r="FB12" s="3"/>
-      <c r="FC12" s="3"/>
-      <c r="FD12" s="3"/>
-      <c r="FE12" s="3"/>
-      <c r="FF12" s="3"/>
-      <c r="FG12" s="3"/>
-      <c r="FH12" s="3"/>
-      <c r="FI12" s="3"/>
-      <c r="FJ12" s="3"/>
-      <c r="FK12" s="3"/>
-      <c r="FL12" s="3"/>
-      <c r="FM12" s="3"/>
-      <c r="FN12" s="3"/>
-      <c r="FO12" s="3"/>
-      <c r="FP12" s="3"/>
-      <c r="FQ12" s="3"/>
-      <c r="FR12" s="3"/>
-      <c r="FS12" s="3"/>
-      <c r="FT12" s="3"/>
-      <c r="FU12" s="3"/>
-      <c r="FV12" s="3"/>
-      <c r="FW12" s="3"/>
-      <c r="FX12" s="3"/>
-      <c r="FY12" s="3"/>
-      <c r="FZ12" s="3"/>
-      <c r="GA12" s="3"/>
-      <c r="GB12" s="3"/>
-      <c r="GC12" s="3"/>
-      <c r="GD12" s="3"/>
-      <c r="GE12" s="3"/>
-      <c r="GF12" s="3"/>
-      <c r="GG12" s="3"/>
-      <c r="GH12" s="3"/>
-      <c r="GI12" s="3"/>
-      <c r="GJ12" s="3"/>
-      <c r="GK12" s="3"/>
-      <c r="GL12" s="3"/>
-      <c r="GM12" s="3"/>
-      <c r="GN12" s="3"/>
+    <row r="12" spans="1:196">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
+      <c r="DC12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="2"/>
+      <c r="DF12" s="2"/>
+      <c r="DG12" s="2"/>
+      <c r="DH12" s="2"/>
+      <c r="DI12" s="2"/>
+      <c r="DJ12" s="2"/>
+      <c r="DK12" s="2"/>
+      <c r="DL12" s="2"/>
+      <c r="DM12" s="2"/>
+      <c r="DN12" s="2"/>
+      <c r="DO12" s="2"/>
+      <c r="DP12" s="2"/>
+      <c r="DQ12" s="2"/>
+      <c r="DR12" s="2"/>
+      <c r="DS12" s="2"/>
+      <c r="DT12" s="2"/>
+      <c r="DU12" s="2"/>
+      <c r="DV12" s="2"/>
+      <c r="DW12" s="2"/>
+      <c r="DX12" s="2"/>
+      <c r="DY12" s="2"/>
+      <c r="DZ12" s="2"/>
+      <c r="EA12" s="2"/>
+      <c r="EB12" s="2"/>
+      <c r="EC12" s="2"/>
+      <c r="ED12" s="2"/>
+      <c r="EE12" s="2"/>
+      <c r="EF12" s="2"/>
+      <c r="EG12" s="2"/>
+      <c r="EH12" s="2"/>
+      <c r="EI12" s="2"/>
+      <c r="EJ12" s="2"/>
+      <c r="EK12" s="2"/>
+      <c r="EL12" s="2"/>
+      <c r="EM12" s="2"/>
+      <c r="EN12" s="2"/>
+      <c r="EO12" s="2"/>
+      <c r="EP12" s="2"/>
+      <c r="EQ12" s="2"/>
+      <c r="ER12" s="2"/>
+      <c r="ES12" s="2"/>
+      <c r="ET12" s="2"/>
+      <c r="EU12" s="2"/>
+      <c r="EV12" s="2"/>
+      <c r="EW12" s="2"/>
+      <c r="EX12" s="2"/>
+      <c r="EY12" s="2"/>
+      <c r="EZ12" s="2"/>
+      <c r="FA12" s="2"/>
+      <c r="FB12" s="2"/>
+      <c r="FC12" s="2"/>
+      <c r="FD12" s="2"/>
+      <c r="FE12" s="2"/>
+      <c r="FF12" s="2"/>
+      <c r="FG12" s="2"/>
+      <c r="FH12" s="2"/>
+      <c r="FI12" s="2"/>
+      <c r="FJ12" s="2"/>
+      <c r="FK12" s="2"/>
+      <c r="FL12" s="2"/>
+      <c r="FM12" s="2"/>
+      <c r="FN12" s="2"/>
+      <c r="FO12" s="2"/>
+      <c r="FP12" s="2"/>
+      <c r="FQ12" s="2"/>
+      <c r="FR12" s="2"/>
+      <c r="FS12" s="2"/>
+      <c r="FT12" s="2"/>
+      <c r="FU12" s="2"/>
+      <c r="FV12" s="2"/>
+      <c r="FW12" s="2"/>
+      <c r="FX12" s="2"/>
+      <c r="FY12" s="2"/>
+      <c r="FZ12" s="2"/>
+      <c r="GA12" s="2"/>
+      <c r="GB12" s="2"/>
+      <c r="GC12" s="2"/>
+      <c r="GD12" s="2"/>
+      <c r="GE12" s="2"/>
+      <c r="GF12" s="2"/>
+      <c r="GG12" s="2"/>
+      <c r="GH12" s="2"/>
+      <c r="GI12" s="2"/>
+      <c r="GJ12" s="2"/>
+      <c r="GK12" s="2"/>
+      <c r="GL12" s="2"/>
+      <c r="GM12" s="2"/>
+      <c r="GN12" s="2"/>
     </row>
-    <row r="13" spans="1:196" x14ac:dyDescent="0.2">
-      <c r="I13" s="5"/>
+    <row r="13" spans="1:196">
+      <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:196" x14ac:dyDescent="0.2">
-      <c r="I14" s="5"/>
-      <c r="K14" s="6"/>
+    <row r="14" spans="1:196">
+      <c r="I14" s="4"/>
+      <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:196" x14ac:dyDescent="0.2">
-      <c r="I15" s="5"/>
+    <row r="15" spans="1:196">
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:GP1" xr:uid="{EA6C94A0-9023-4E49-A161-B2ACEF13D912}"/>
@@ -14019,50 +14028,50 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="12" width="40.33203125" customWidth="1"/>
+    <col min="2" max="12" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -14100,7 +14109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -14138,7 +14147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -14176,7 +14185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -14214,7 +14223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -14252,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -14290,7 +14299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -14328,7 +14337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -14366,7 +14375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>181</v>
       </c>
@@ -14404,7 +14413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -14442,28 +14451,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
